--- a/题目一_贷款分配.xlsx
+++ b/题目一_贷款分配.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,139 +3585,93 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>***地质灾害防治有限公司</t>
+          <t>***酒店管理有限公司</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>40</v>
       </c>
       <c r="D69" t="n">
-        <v>55590.08</v>
+        <v>28560.01999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.07033248081841433</v>
       </c>
       <c r="F69" t="n">
         <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>0.08266617621602909</v>
+        <v>0.04537788615667952</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5442817616806017</v>
+        <v>0.1487958591111567</v>
       </c>
       <c r="I69" t="n">
-        <v>148695.85</v>
+        <v>852145.9700000001</v>
       </c>
       <c r="J69" t="n">
-        <v>2209553.36</v>
+        <v>1612788.61</v>
       </c>
       <c r="K69" t="n">
-        <v>74347.925</v>
+        <v>71012.16416666667</v>
       </c>
       <c r="L69" t="n">
-        <v>1104776.68</v>
+        <v>134399.0508333333</v>
       </c>
       <c r="M69" t="n">
-        <v>2209553.36</v>
+        <v>537596.2033333334</v>
       </c>
       <c r="N69" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>***酒店管理有限公司</t>
+          <t>***实业有限责任公司</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>40</v>
       </c>
       <c r="D70" t="n">
-        <v>28560.01999999999</v>
+        <v>27784.16999999995</v>
       </c>
       <c r="E70" t="n">
-        <v>0.07033248081841433</v>
+        <v>0.0137299771167048</v>
       </c>
       <c r="F70" t="n">
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04537788615667952</v>
+        <v>0.06519054340155257</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1487958591111567</v>
+        <v>0.3876818740137371</v>
       </c>
       <c r="I70" t="n">
-        <v>852145.9700000001</v>
+        <v>1231635.675000001</v>
       </c>
       <c r="J70" t="n">
-        <v>1612788.61</v>
+        <v>3614042.029999999</v>
       </c>
       <c r="K70" t="n">
-        <v>71012.16416666667</v>
+        <v>1231635.675000001</v>
       </c>
       <c r="L70" t="n">
-        <v>134399.0508333333</v>
+        <v>3614042.029999999</v>
       </c>
       <c r="M70" t="n">
-        <v>537596.2033333334</v>
+        <v>1807021.014999999</v>
       </c>
       <c r="N70" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>***实业有限责任公司</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>40</v>
-      </c>
-      <c r="D71" t="n">
-        <v>27784.16999999995</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.0137299771167048</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.06519054340155257</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.3876818740137371</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1231635.675000001</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3614042.029999999</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1231635.675000001</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3614042.029999999</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1807021.014999999</v>
-      </c>
-      <c r="N71" t="n">
         <v>1830000</v>
       </c>
     </row>
